--- a/data/long_razon/P23_5-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_5-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-27,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-46,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-31,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-29,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-66,35; 45,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-78,55; 41,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-63,63; 35,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 150,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 16,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 38,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-23,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-54,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-37,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,03; 67,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,52; 260,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,18; -5,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 120,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,87; 16,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 146,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-25,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 34,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 120,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-47,57; 27,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 132,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 12,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 96,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,17; 59,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 48,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 80,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 95,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 49,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 62,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-18,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 84,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 38,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 78,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 167,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 54,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 78,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-28,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>128,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,1; 29,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 73,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,21; 360,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,27; 6,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 147,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-20,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,43 +1345,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 32,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 2,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,99; 93,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,91; -4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 47,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
